--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1721620.818090174</v>
+        <v>1718608.047598348</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673415</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,46 +677,46 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>15.11564219756823</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.437811905906658</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.437811905906647</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.31385764761808</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,64 +744,64 @@
         <v>15.11564219756823</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>15.11564219756823</v>
       </c>
-      <c r="F3" t="n">
-        <v>13.31385764761809</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>15.11564219756823</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.49724919947431</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.49724919947431</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6.437811905906651</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="F5" t="n">
-        <v>15.11564219756823</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.11564219756823</v>
@@ -944,7 +944,7 @@
         <v>15.11564219756823</v>
       </c>
       <c r="S5" t="n">
-        <v>13.31385764761809</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13.31385764761808</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.31385764761809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,31 +1054,31 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7948689680936343</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7948689680937328</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>15.11564219756823</v>
       </c>
-      <c r="E7" t="n">
+      <c r="J7" t="n">
         <v>15.11564219756823</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
-        <v>12.51898867952445</v>
+        <v>12.51898867952435</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>57.08569488870593</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>11.36529914368128</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>133.833359060644</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W9" t="n">
-        <v>186.1649406925474</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>79.57096412603413</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>3.343082173845758</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>57.50003149906875</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.052558947363</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.3498268763623</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7508060364354</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.52880216911834</v>
+        <v>19.52880216911848</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15561840521062</v>
+        <v>24.10135445394777</v>
       </c>
       <c r="T11" t="n">
         <v>201.4144832429035</v>
@@ -1427,7 +1427,7 @@
         <v>250.9494200567347</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934763436069</v>
       </c>
       <c r="H12" t="n">
-        <v>86.6416289524286</v>
+        <v>86.64162895242862</v>
       </c>
       <c r="I12" t="n">
-        <v>8.281939500484697</v>
+        <v>8.281939500484768</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>58.99829835503478</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692741559437</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4741935250782</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63774029162282</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2983355531412</v>
+        <v>34.73016805116664</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4528490175352</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978454363537</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754656</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352753</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>108.8359832566036</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>86.72290329780353</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833914</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081959</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001851</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.804576744409</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>89.97676987682887</v>
       </c>
       <c r="T19" t="n">
-        <v>181.8757292358461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349696</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.9464125187641</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>5.313812950988531</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>17.91582343699915</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>120.0312718434578</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>212.4227888883773</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="F28" t="n">
-        <v>87.21471514852993</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>69.8286381302724</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062051</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>51.36569740310292</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>49.33106662725111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>65.56423921895134</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>35.01782305658435</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.76895293959845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428179</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.69140302918717</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="C2" t="n">
-        <v>38.69140302918717</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="D2" t="n">
-        <v>38.69140302918717</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="E2" t="n">
-        <v>38.69140302918717</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="F2" t="n">
-        <v>31.7459022799837</v>
+        <v>16.47757682789458</v>
       </c>
       <c r="G2" t="n">
-        <v>16.47757682789458</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="H2" t="n">
-        <v>16.47757682789458</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="I2" t="n">
         <v>1.209251375805458</v>
@@ -4331,7 +4331,7 @@
         <v>1.209251375805458</v>
       </c>
       <c r="K2" t="n">
-        <v>1.209251375805458</v>
+        <v>15.56911146349528</v>
       </c>
       <c r="L2" t="n">
         <v>15.56911146349528</v>
@@ -4343,37 +4343,37 @@
         <v>30.53359723908783</v>
       </c>
       <c r="O2" t="n">
-        <v>45.49808301468038</v>
+        <v>45.49808301468037</v>
       </c>
       <c r="P2" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="R2" t="n">
-        <v>53.95972848127629</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="S2" t="n">
-        <v>53.95972848127629</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="T2" t="n">
-        <v>53.95972848127629</v>
+        <v>29.92591788609467</v>
       </c>
       <c r="U2" t="n">
-        <v>53.95972848127629</v>
+        <v>29.92591788609467</v>
       </c>
       <c r="V2" t="n">
-        <v>53.95972848127629</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="W2" t="n">
-        <v>53.95972848127629</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="X2" t="n">
-        <v>53.95972848127629</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.95972848127629</v>
+        <v>23.42307757709805</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.46256879027292</v>
+        <v>16.47757682789458</v>
       </c>
       <c r="C3" t="n">
-        <v>60.46256879027292</v>
+        <v>16.47757682789458</v>
       </c>
       <c r="D3" t="n">
-        <v>45.1942433381838</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="E3" t="n">
-        <v>29.92591788609467</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="F3" t="n">
-        <v>16.47757682789458</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="G3" t="n">
         <v>1.209251375805458</v>
@@ -4410,49 +4410,49 @@
         <v>1.209251375805458</v>
       </c>
       <c r="K3" t="n">
-        <v>1.209251375805458</v>
+        <v>16.173737151398</v>
       </c>
       <c r="L3" t="n">
-        <v>1.209251375805458</v>
+        <v>31.13822292699055</v>
       </c>
       <c r="M3" t="n">
-        <v>1.209251375805458</v>
+        <v>45.49808301468037</v>
       </c>
       <c r="N3" t="n">
-        <v>16.173737151398</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="O3" t="n">
-        <v>31.13822292699055</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="P3" t="n">
-        <v>46.1027087025831</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="R3" t="n">
-        <v>60.46256879027292</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="S3" t="n">
-        <v>60.46256879027292</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="T3" t="n">
-        <v>60.46256879027292</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="U3" t="n">
-        <v>60.46256879027292</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="V3" t="n">
-        <v>60.46256879027292</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="W3" t="n">
-        <v>60.46256879027292</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="X3" t="n">
-        <v>60.46256879027292</v>
+        <v>29.92591788609467</v>
       </c>
       <c r="Y3" t="n">
-        <v>60.46256879027292</v>
+        <v>29.92591788609467</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.29233283612062</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="C4" t="n">
-        <v>16.29233283612062</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="D4" t="n">
-        <v>16.29233283612062</v>
+        <v>31.56065828820974</v>
       </c>
       <c r="E4" t="n">
-        <v>16.29233283612062</v>
+        <v>31.56065828820974</v>
       </c>
       <c r="F4" t="n">
-        <v>16.29233283612062</v>
+        <v>31.56065828820974</v>
       </c>
       <c r="G4" t="n">
-        <v>16.29233283612062</v>
+        <v>31.56065828820974</v>
       </c>
       <c r="H4" t="n">
-        <v>16.29233283612062</v>
+        <v>31.56065828820974</v>
       </c>
       <c r="I4" t="n">
-        <v>16.29233283612062</v>
+        <v>31.56065828820974</v>
       </c>
       <c r="J4" t="n">
         <v>16.29233283612062</v>
@@ -4498,40 +4498,40 @@
         <v>31.13822292699055</v>
       </c>
       <c r="N4" t="n">
-        <v>45.49808301468038</v>
+        <v>45.49808301468037</v>
       </c>
       <c r="O4" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="P4" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="R4" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="S4" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="T4" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="U4" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="V4" t="n">
-        <v>29.92591788609467</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="W4" t="n">
-        <v>16.29233283612062</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="X4" t="n">
-        <v>16.29233283612062</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.29233283612062</v>
+        <v>45.19424333818379</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7459022799837</v>
+        <v>38.69140302918717</v>
       </c>
       <c r="E5" t="n">
-        <v>31.7459022799837</v>
+        <v>23.42307757709805</v>
       </c>
       <c r="F5" t="n">
         <v>16.47757682789458</v>
@@ -4565,52 +4565,52 @@
         <v>1.209251375805458</v>
       </c>
       <c r="J5" t="n">
-        <v>5.100141311982654</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="K5" t="n">
-        <v>20.0646270875752</v>
+        <v>1.209251375805458</v>
       </c>
       <c r="L5" t="n">
-        <v>35.02911286316775</v>
+        <v>16.173737151398</v>
       </c>
       <c r="M5" t="n">
-        <v>49.99359863876029</v>
+        <v>31.13822292699055</v>
       </c>
       <c r="N5" t="n">
-        <v>50.3512134325272</v>
+        <v>46.10270870258309</v>
       </c>
       <c r="O5" t="n">
-        <v>50.3512134325272</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="P5" t="n">
-        <v>50.3512134325272</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Q5" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="R5" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="S5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="T5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="U5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="V5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="W5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="X5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.7459022799837</v>
+        <v>45.19424333818379</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.209251375805458</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="C6" t="n">
-        <v>1.209251375805458</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="D6" t="n">
-        <v>1.209251375805458</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="E6" t="n">
-        <v>1.209251375805458</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="F6" t="n">
-        <v>1.209251375805458</v>
+        <v>29.92591788609467</v>
       </c>
       <c r="G6" t="n">
-        <v>1.209251375805458</v>
+        <v>29.92591788609467</v>
       </c>
       <c r="H6" t="n">
-        <v>1.209251375805458</v>
+        <v>16.47757682789458</v>
       </c>
       <c r="I6" t="n">
         <v>1.209251375805458</v>
       </c>
       <c r="J6" t="n">
-        <v>9.833259083524965</v>
+        <v>9.833259083525062</v>
       </c>
       <c r="K6" t="n">
-        <v>9.833259083524965</v>
+        <v>24.79774485911761</v>
       </c>
       <c r="L6" t="n">
-        <v>9.833259083524965</v>
+        <v>39.76223063471015</v>
       </c>
       <c r="M6" t="n">
-        <v>15.56911146349528</v>
+        <v>54.72671641030269</v>
       </c>
       <c r="N6" t="n">
-        <v>30.53359723908783</v>
+        <v>54.72671641030269</v>
       </c>
       <c r="O6" t="n">
-        <v>30.53359723908783</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="P6" t="n">
-        <v>45.49808301468038</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="R6" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="S6" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="T6" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="U6" t="n">
-        <v>45.1942433381838</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="V6" t="n">
-        <v>29.92591788609467</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="W6" t="n">
-        <v>29.92591788609467</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="X6" t="n">
-        <v>14.65759243400555</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.209251375805458</v>
+        <v>60.46256879027291</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="C7" t="n">
-        <v>44.39134539061447</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="D7" t="n">
-        <v>29.12301993852535</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="E7" t="n">
-        <v>13.85469448643622</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="F7" t="n">
-        <v>13.85469448643622</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="G7" t="n">
-        <v>13.85469448643622</v>
+        <v>44.39134539061436</v>
       </c>
       <c r="H7" t="n">
-        <v>13.85469448643622</v>
+        <v>44.39134539061436</v>
       </c>
       <c r="I7" t="n">
-        <v>13.85469448643622</v>
+        <v>29.12301993852524</v>
       </c>
       <c r="J7" t="n">
-        <v>13.85469448643622</v>
+        <v>13.85469448643612</v>
       </c>
       <c r="K7" t="n">
         <v>1.209251375805458</v>
@@ -4735,40 +4735,40 @@
         <v>31.13822292699055</v>
       </c>
       <c r="N7" t="n">
-        <v>46.1027087025831</v>
+        <v>45.49808301468037</v>
       </c>
       <c r="O7" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="P7" t="n">
-        <v>60.46256879027292</v>
+        <v>60.46256879027291</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="R7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="S7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="T7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="U7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="V7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="W7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="X7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.1942433381838</v>
+        <v>45.19424333818379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>414.0172523312951</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="C8" t="n">
-        <v>224.5974673148102</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="D8" t="n">
-        <v>35.17768229832529</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="E8" t="n">
-        <v>35.17768229832529</v>
+        <v>520.5803211678663</v>
       </c>
       <c r="F8" t="n">
-        <v>28.23218154912182</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020274</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201481</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201477</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201477</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201477</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201477</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201477</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="X8" t="n">
-        <v>603.43703734778</v>
+        <v>578.2426392372662</v>
       </c>
       <c r="Y8" t="n">
-        <v>603.43703734778</v>
+        <v>578.2426392372662</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772654</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017072</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652803</v>
+        <v>560.6825636487956</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487954</v>
+        <v>560.6825636487956</v>
       </c>
       <c r="V9" t="n">
-        <v>371.2627786323105</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W9" t="n">
-        <v>183.2173839933736</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X9" t="n">
-        <v>183.2173839933736</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.2173839933736</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.0770331543882</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C10" t="n">
-        <v>396.1408502264813</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D10" t="n">
-        <v>246.0242108141456</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E10" t="n">
-        <v>246.0242108141456</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F10" t="n">
-        <v>246.0242108141456</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G10" t="n">
-        <v>246.0242108141456</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>43.17590452428144</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>216.0634826394165</v>
       </c>
       <c r="M10" t="n">
-        <v>295.552956263964</v>
+        <v>401.7138139340735</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242523</v>
+        <v>587.3641452287305</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608025</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846284</v>
       </c>
       <c r="R10" t="n">
-        <v>746.725497984628</v>
+        <v>688.6446580865792</v>
       </c>
       <c r="S10" t="n">
-        <v>746.725497984628</v>
+        <v>688.6446580865792</v>
       </c>
       <c r="T10" t="n">
-        <v>746.725497984628</v>
+        <v>688.6446580865792</v>
       </c>
       <c r="U10" t="n">
-        <v>746.725497984628</v>
+        <v>688.6446580865792</v>
       </c>
       <c r="V10" t="n">
-        <v>746.725497984628</v>
+        <v>688.6446580865792</v>
       </c>
       <c r="W10" t="n">
-        <v>746.725497984628</v>
+        <v>688.6446580865792</v>
       </c>
       <c r="X10" t="n">
-        <v>746.725497984628</v>
+        <v>499.2248730700941</v>
       </c>
       <c r="Y10" t="n">
-        <v>746.725497984628</v>
+        <v>309.8050880536091</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1919.363456492841</v>
+        <v>2038.681880437564</v>
       </c>
       <c r="C11" t="n">
-        <v>1550.400939552429</v>
+        <v>1669.719363497152</v>
       </c>
       <c r="D11" t="n">
-        <v>1192.135240945679</v>
+        <v>1311.453664890402</v>
       </c>
       <c r="E11" t="n">
-        <v>806.3469883474343</v>
+        <v>925.6654122921577</v>
       </c>
       <c r="F11" t="n">
-        <v>806.3469883474343</v>
+        <v>514.6795075025501</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8522137248461</v>
+        <v>100.1847328799619</v>
       </c>
       <c r="H11" t="n">
         <v>100.1847328799619</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="J11" t="n">
         <v>317.3916029357192</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2311690013139</v>
+        <v>723.231169001313</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.612799352881</v>
+        <v>1263.612799352879</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.560920956287</v>
+        <v>1896.560920956285</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.364613272957</v>
+        <v>2544.364613272955</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.732009130129</v>
+        <v>3142.732009130126</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.923736916298</v>
+        <v>3618.923736916294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.351146395939</v>
+        <v>3928.351146395935</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.933504143631</v>
+        <v>4022.933504143627</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.806616865641</v>
+        <v>3998.588701664891</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.357643893011</v>
+        <v>3795.139728692262</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.873381209441</v>
+        <v>3541.655466008691</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.81049386587</v>
+        <v>3541.655466008691</v>
       </c>
       <c r="W11" t="n">
-        <v>2785.041838595756</v>
+        <v>3188.886810738577</v>
       </c>
       <c r="X11" t="n">
-        <v>2411.576080334676</v>
+        <v>2815.421052477497</v>
       </c>
       <c r="Y11" t="n">
-        <v>2021.436748358864</v>
+        <v>2425.281720501685</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.3410624595527</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82426553790768</v>
+        <v>88.82426553790765</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="J12" t="n">
-        <v>80.45867008287263</v>
+        <v>202.7564547799498</v>
       </c>
       <c r="K12" t="n">
-        <v>80.45867008287263</v>
+        <v>489.9376728567287</v>
       </c>
       <c r="L12" t="n">
-        <v>512.9317993057933</v>
+        <v>922.410802079649</v>
       </c>
       <c r="M12" t="n">
-        <v>1036.964410841521</v>
+        <v>1446.443413615376</v>
       </c>
       <c r="N12" t="n">
-        <v>1589.275251212645</v>
+        <v>1998.7542539865</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.311972272445</v>
+        <v>1998.7542539865</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.658459949229</v>
+        <v>2361.60193782047</v>
       </c>
       <c r="Q12" t="n">
         <v>2557.912613640265</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.9727529035403</v>
+        <v>694.3145335034187</v>
       </c>
       <c r="C13" t="n">
-        <v>838.9727529035403</v>
+        <v>525.3783505755118</v>
       </c>
       <c r="D13" t="n">
-        <v>688.8561134912045</v>
+        <v>375.261711163176</v>
       </c>
       <c r="E13" t="n">
-        <v>540.9430199088114</v>
+        <v>227.3486175807829</v>
       </c>
       <c r="F13" t="n">
-        <v>481.34877914615</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="G13" t="n">
-        <v>313.9050678775201</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="H13" t="n">
-        <v>169.9917410845118</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45867008287263</v>
+        <v>80.45867008287253</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5368940070049</v>
+        <v>143.5368940070046</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0306294926658</v>
+        <v>377.0306294926653</v>
       </c>
       <c r="L13" t="n">
-        <v>731.348656437764</v>
+        <v>731.3486564377632</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.316459892695</v>
+        <v>1115.316459892693</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.588983613559</v>
+        <v>1495.588983613557</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.815912646799</v>
+        <v>1830.815912646797</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.13978044739</v>
+        <v>2094.139780447388</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.01649721151</v>
+        <v>2193.016497211508</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.01649721151</v>
+        <v>2193.016497211508</v>
       </c>
       <c r="S13" t="n">
-        <v>2005.846461299246</v>
+        <v>2157.935519382047</v>
       </c>
       <c r="T13" t="n">
-        <v>1785.187017847191</v>
+        <v>2157.935519382047</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.098285083197</v>
+        <v>1868.846786618053</v>
       </c>
       <c r="V13" t="n">
-        <v>1241.41379687731</v>
+        <v>1614.162298412166</v>
       </c>
       <c r="W13" t="n">
-        <v>1241.41379687731</v>
+        <v>1324.745128375206</v>
       </c>
       <c r="X13" t="n">
-        <v>1241.41379687731</v>
+        <v>1096.755577477189</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.62121773378</v>
+        <v>875.9629983336584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.42257462003</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128753</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.8116232260805</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>301.0525042748308</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>791.784837118582</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2200.595509637358</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>816.6028232694584</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>647.6666403415517</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>497.5500009292159</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>349.6369073468228</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>202.7469598489124</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
         <v>819.184291169332</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368668</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.516429368668</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>2272.917537148665</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1447.033418141246</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1219.043867243228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>998.2512880996982</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D17" t="n">
         <v>1589.996253358682</v>
@@ -5501,64 +5501,64 @@
         <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708297</v>
       </c>
       <c r="G17" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128753</v>
       </c>
       <c r="L17" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="L18" t="n">
-        <v>583.543956069832</v>
+        <v>583.5439560698318</v>
       </c>
       <c r="M18" t="n">
-        <v>1175.56231032196</v>
+        <v>1175.562310321959</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.658273721296</v>
+        <v>1797.658273721295</v>
       </c>
       <c r="O18" t="n">
-        <v>2344.53474872149</v>
+        <v>2344.534748721489</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.0544497962737</v>
+        <v>873.8816814720477</v>
       </c>
       <c r="C19" t="n">
-        <v>612.1182668683667</v>
+        <v>704.9454985441408</v>
       </c>
       <c r="D19" t="n">
-        <v>612.1182668683667</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E19" t="n">
-        <v>464.2051732859736</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F19" t="n">
-        <v>317.3152257880632</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880632</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
         <v>2020.132206020528</v>
@@ -5692,31 +5692,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410168</v>
+        <v>2337.490148271956</v>
       </c>
       <c r="T19" t="n">
-        <v>2244.662916596182</v>
+        <v>2337.490148271956</v>
       </c>
       <c r="U19" t="n">
-        <v>1955.586702910909</v>
+        <v>2048.413934586682</v>
       </c>
       <c r="V19" t="n">
-        <v>1700.902214705022</v>
+        <v>1793.729446380796</v>
       </c>
       <c r="W19" t="n">
-        <v>1411.485044668061</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.495493770044</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y19" t="n">
-        <v>962.7029146265135</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E20" t="n">
         <v>1204.208000760437</v>
@@ -5741,61 +5741,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128753</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412853</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L21" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2200.595509637358</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.9183350635723</v>
+        <v>745.0885253246415</v>
       </c>
       <c r="C22" t="n">
-        <v>392.9821521356654</v>
+        <v>576.1523423967346</v>
       </c>
       <c r="D22" t="n">
-        <v>387.614664306384</v>
+        <v>426.0357029843989</v>
       </c>
       <c r="E22" t="n">
-        <v>239.7015707239909</v>
+        <v>278.1226094020058</v>
       </c>
       <c r="F22" t="n">
-        <v>92.81162322608056</v>
+        <v>278.1226094020058</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608056</v>
+        <v>110.9084145765847</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
         <v>2428.375774410168</v>
@@ -5935,25 +5935,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178207</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.76609997232</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.34892993536</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373421</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.566799893812</v>
+        <v>926.7369901548813</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>801.6918836311987</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>801.6918836311987</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>651.575244218863</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>503.6621506364698</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>356.7722031385595</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832662</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.84215317686</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970973</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934012</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>983.3403484614385</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,34 +6233,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380891</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101822</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101822</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E28" t="n">
-        <v>572.9069687101822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683289</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6555,7 +6555,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.868625753638</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2376.429105670894</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2156.827640693835</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1867.752414038033</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1613.067925832146</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1323.650755795185</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1095.661204897168</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.868625753638</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784062</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504993</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381635</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557704</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>924.6979859831844</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>755.7618030552775</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>605.6451636429417</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>457.7320700605486</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>310.8421225626382</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>143.6460232775185</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138412</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,19 +7196,19 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121647</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121647</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121647</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703113</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7394,31 +7394,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>662.1522880254209</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713841</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.8007528556607</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>580.8993044876685</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E46" t="n">
         <v>261.0127623330919</v>
@@ -7795,22 +7795,22 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>762.5477693179082</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>216.6858730156192</v>
       </c>
       <c r="L2" t="n">
-        <v>228.0537659547649</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
         <v>205.6249188705004</v>
@@ -8058,25 +8058,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>140.7931400785684</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>137.3141020538547</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>137.5523560095797</v>
       </c>
       <c r="N3" t="n">
         <v>126.8656020225675</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7892608851222</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>134.7055623553958</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.8710344733418</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>165.1664233173492</v>
       </c>
       <c r="K5" t="n">
-        <v>211.4062672406083</v>
+        <v>196.2906250430398</v>
       </c>
       <c r="L5" t="n">
-        <v>221.3570128406294</v>
+        <v>221.3570128406291</v>
       </c>
       <c r="M5" t="n">
-        <v>212.609574744136</v>
+        <v>212.6095747441356</v>
       </c>
       <c r="N5" t="n">
-        <v>196.3904054092602</v>
+        <v>211.1448205424171</v>
       </c>
       <c r="O5" t="n">
-        <v>198.5747552340001</v>
+        <v>213.0796644134844</v>
       </c>
       <c r="P5" t="n">
-        <v>204.3284552200138</v>
+        <v>204.3284552200135</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>202.1015003995552</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>121.6767058014266</v>
+        <v>136.7923479989946</v>
       </c>
       <c r="L6" t="n">
-        <v>116.8189011768913</v>
+        <v>131.9345433744593</v>
       </c>
       <c r="M6" t="n">
-        <v>122.5635458714297</v>
+        <v>131.8853977861993</v>
       </c>
       <c r="N6" t="n">
-        <v>120.4217589737956</v>
+        <v>105.3061167762271</v>
       </c>
       <c r="O6" t="n">
-        <v>118.7787612048522</v>
+        <v>124.5725514876502</v>
       </c>
       <c r="P6" t="n">
-        <v>129.9744195257119</v>
+        <v>114.8587773281434</v>
       </c>
       <c r="Q6" t="n">
-        <v>142.3191238028057</v>
+        <v>127.2034816052374</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>137.5230314322067</v>
+        <v>137.5230314322066</v>
       </c>
       <c r="M7" t="n">
-        <v>140.8858763992689</v>
+        <v>140.8858763992688</v>
       </c>
       <c r="N7" t="n">
-        <v>129.9584464857552</v>
+        <v>129.3477134676715</v>
       </c>
       <c r="O7" t="n">
-        <v>141.0990984200927</v>
+        <v>141.7098314381761</v>
       </c>
       <c r="P7" t="n">
-        <v>127.5777150147852</v>
+        <v>127.5777150147851</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471112</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1946371899314</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04630632975124094</v>
+        <v>0.04630632975124271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.6812827161176</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7508060364355</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>72.05426395126294</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>86.42274966789647</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692741559437</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4741935250782</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.63774029162288</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39744654408217</v>
+        <v>77.39744654408226</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>150.5681675019746</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4528490175352</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729195</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.2915261372921</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>56.70606962056335</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>199.4625482506169</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.29152613729156</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>50.29152613728908</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108353</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>91.36171848163009</v>
       </c>
       <c r="T19" t="n">
-        <v>35.60626522691567</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>50.2915261372922</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.29152613728951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>122.5381663549548</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45.49286644881101</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>13.2868665006599</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="F28" t="n">
-        <v>58.20633287440131</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>72.11969353038586</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.6605885985417</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>90.96364621897277</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194181</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>251.5051752800067</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393057</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>947800.3490635226</v>
+        <v>947800.3490635225</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809872.1920403937</v>
+        <v>809872.1920403934</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870810.0260560436</v>
+        <v>870810.0260560435</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870810.0260560438</v>
+        <v>870810.0260560435</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>554200.7066192938</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>503545.5547295652</v>
+        <v>503545.5547295649</v>
       </c>
       <c r="F2" t="n">
-        <v>541808.8458556707</v>
+        <v>541808.845855671</v>
       </c>
       <c r="G2" t="n">
         <v>541808.845855671</v>
       </c>
       <c r="H2" t="n">
-        <v>541808.8458556712</v>
+        <v>541808.845855671</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>38812.54146551417</v>
       </c>
       <c r="C3" t="n">
-        <v>10488.95082542985</v>
+        <v>10488.95082543029</v>
       </c>
       <c r="D3" t="n">
-        <v>483415.5636695834</v>
+        <v>483415.563669583</v>
       </c>
       <c r="E3" t="n">
-        <v>793478.2866439426</v>
+        <v>793478.2866439414</v>
       </c>
       <c r="F3" t="n">
-        <v>143842.6767526519</v>
+        <v>143842.676752653</v>
       </c>
       <c r="G3" t="n">
-        <v>5.405192951002392e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744836</v>
+        <v>10818.91345744871</v>
       </c>
       <c r="J3" t="n">
-        <v>3954.917087140521</v>
+        <v>3954.917087140462</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43635.40538208637</v>
+        <v>43635.40538208645</v>
       </c>
       <c r="M3" t="n">
-        <v>203900.6538174568</v>
+        <v>203900.6538174564</v>
       </c>
       <c r="N3" t="n">
-        <v>37819.64693133095</v>
+        <v>37819.64693133126</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>405707.8016084756</v>
       </c>
       <c r="C4" t="n">
-        <v>403216.1885850802</v>
+        <v>403216.1885850801</v>
       </c>
       <c r="D4" t="n">
         <v>271884.2225707669</v>
       </c>
       <c r="E4" t="n">
-        <v>8640.735835840542</v>
+        <v>8640.73583584054</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
         <v>8720.723770518933</v>
       </c>
       <c r="H4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770518931</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744271</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744319</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744299</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744293</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744319</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.98542938827</v>
+        <v>88006.98542938818</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74370.26901601491</v>
+        <v>74370.25980105535</v>
       </c>
       <c r="C6" t="n">
-        <v>104936.8530689334</v>
+        <v>104936.8530689328</v>
       </c>
       <c r="D6" t="n">
-        <v>-258082.3919935729</v>
+        <v>-258082.3919935725</v>
       </c>
       <c r="E6" t="n">
-        <v>-386580.4531796062</v>
+        <v>-386768.0740682305</v>
       </c>
       <c r="F6" t="n">
-        <v>289103.3168186615</v>
+        <v>289057.4118230951</v>
       </c>
       <c r="G6" t="n">
-        <v>432945.9935713131</v>
+        <v>432900.088575748</v>
       </c>
       <c r="H6" t="n">
-        <v>432945.993571314</v>
+        <v>432900.088575748</v>
       </c>
       <c r="I6" t="n">
-        <v>424155.2551176545</v>
+        <v>424120.5171922185</v>
       </c>
       <c r="J6" t="n">
-        <v>431019.2514879621</v>
+        <v>430984.5135625267</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496672</v>
       </c>
       <c r="L6" t="n">
-        <v>391338.7631930163</v>
+        <v>391304.0252675808</v>
       </c>
       <c r="M6" t="n">
-        <v>231073.5147576461</v>
+        <v>231038.7768322107</v>
       </c>
       <c r="N6" t="n">
-        <v>397154.521643772</v>
+        <v>397119.7837183358</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751029</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751029</v>
+        <v>434939.430649667</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>46.53996024474667</v>
+        <v>46.53996024474716</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.036521394729</v>
+        <v>1232.036521394728</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>15.11564219756823</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.733376035908</v>
+        <v>1005.733376035907</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>11.51869952562134</v>
+        <v>11.51869952562183</v>
       </c>
       <c r="D3" t="n">
-        <v>501.9299806681581</v>
+        <v>501.9299806681577</v>
       </c>
       <c r="E3" t="n">
-        <v>683.5665804818238</v>
+        <v>683.5665804818229</v>
       </c>
       <c r="F3" t="n">
-        <v>126.004527321657</v>
+        <v>126.0045273216579</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,37 +27015,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4099449687518</v>
+        <v>172.4099449687519</v>
       </c>
       <c r="E4" t="n">
-        <v>818.2077888695877</v>
+        <v>818.2077888695865</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4119142900985</v>
+        <v>154.4119142900998</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11564219756815</v>
+        <v>15.11564219756792</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4099449687518</v>
+        <v>172.4099449687521</v>
       </c>
       <c r="M4" t="n">
-        <v>818.2077888695879</v>
+        <v>818.2077888695862</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4119142900985</v>
+        <v>154.4119142900997</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4099449687518</v>
+        <v>172.4099449687519</v>
       </c>
       <c r="M4" t="n">
-        <v>818.2077888695877</v>
+        <v>818.2077888695865</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4119142900985</v>
+        <v>154.4119142900998</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.6181994659124</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>189.9324799200776</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5874697793726</v>
+        <v>125.9096394877111</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>207.3639035724004</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>321.3144465642283</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.2193260022493</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,13 +27464,13 @@
         <v>132.3294233670705</v>
       </c>
       <c r="E3" t="n">
-        <v>142.5294382578327</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>131.7553547457658</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.1525462161711</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>80.36520170281135</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.6573430059092</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>135.118223818738</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>73.77861423693015</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.75819068553822</v>
+        <v>65.75819068553824</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27594,10 +27594,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>237.0220011262598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>273.0257491371167</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>348.2452297147763</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>366.8147278746936</v>
       </c>
       <c r="F5" t="n">
-        <v>391.7604035441432</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>337.558712194736</v>
+        <v>337.5587121947359</v>
       </c>
       <c r="I5" t="n">
-        <v>203.2628973399111</v>
+        <v>203.262897339911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>123.0008495014746</v>
+        <v>123.0008495014745</v>
       </c>
       <c r="S5" t="n">
-        <v>191.4427773895733</v>
+        <v>204.7566350371914</v>
       </c>
       <c r="T5" t="n">
         <v>222.2768398114826</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>132.3294233670705</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.9535701958156</v>
       </c>
       <c r="G6" t="n">
         <v>137.2434123430616</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2686424208462</v>
+        <v>97.95478477322807</v>
       </c>
       <c r="I6" t="n">
-        <v>85.95004145593148</v>
+        <v>70.83439925836322</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.94255417882583</v>
+        <v>93.94255417882576</v>
       </c>
       <c r="S6" t="n">
-        <v>169.8237679751916</v>
+        <v>169.8237679751915</v>
       </c>
       <c r="T6" t="n">
         <v>199.7612360206242</v>
       </c>
       <c r="U6" t="n">
-        <v>210.8191540399757</v>
+        <v>225.934796237544</v>
       </c>
       <c r="V6" t="n">
-        <v>217.684944951857</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>190.6573430059092</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>192.3688381296863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>166.4519521305342</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4998308206441</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.3183204490009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9070548399846</v>
+        <v>167.1121858718909</v>
       </c>
       <c r="H7" t="n">
         <v>161.4810072431877</v>
       </c>
       <c r="I7" t="n">
-        <v>152.9266357716907</v>
+        <v>137.8109935741224</v>
       </c>
       <c r="J7" t="n">
-        <v>87.42571666055154</v>
+        <v>72.31007446298325</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.0188670571694</v>
+        <v>64.01886705716935</v>
       </c>
       <c r="R7" t="n">
-        <v>173.5198398465053</v>
+        <v>173.5198398465052</v>
       </c>
       <c r="S7" t="n">
         <v>222.5540225650185</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>324.8446751835559</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>235.8977416178251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27983,19 +27983,19 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681043</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831052</v>
+        <v>45.27499998310509</v>
       </c>
       <c r="W9" t="n">
-        <v>65.53004246837216</v>
+        <v>86.52244598482488</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.2473980371573</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>73.86270670578544</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>75.32233811162162</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271697</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577461</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1870953175668206</v>
+        <v>0.1870953175668226</v>
       </c>
       <c r="H5" t="n">
-        <v>1.916089921031202</v>
+        <v>1.916089921031222</v>
       </c>
       <c r="I5" t="n">
-        <v>7.212992230494859</v>
+        <v>7.212992230494935</v>
       </c>
       <c r="J5" t="n">
-        <v>15.87948120933696</v>
+        <v>15.87948120933712</v>
       </c>
       <c r="K5" t="n">
-        <v>23.79922600194048</v>
+        <v>23.79922600194073</v>
       </c>
       <c r="L5" t="n">
-        <v>29.52504432692607</v>
+        <v>29.52504432692638</v>
       </c>
       <c r="M5" t="n">
-        <v>32.85230068070501</v>
+        <v>32.85230068070536</v>
       </c>
       <c r="N5" t="n">
-        <v>33.38388525174175</v>
+        <v>33.3838852517421</v>
       </c>
       <c r="O5" t="n">
-        <v>31.52345618768667</v>
+        <v>31.52345618768701</v>
       </c>
       <c r="P5" t="n">
-        <v>26.90454053525578</v>
+        <v>26.90454053525607</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.20418947489402</v>
+        <v>20.20418947489423</v>
       </c>
       <c r="R5" t="n">
-        <v>11.75262624210681</v>
+        <v>11.75262624210693</v>
       </c>
       <c r="S5" t="n">
-        <v>4.26343454905393</v>
+        <v>4.263434549053974</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8190097526487577</v>
+        <v>0.8190097526487663</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01496762540534565</v>
+        <v>0.01496762540534581</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1001048201490777</v>
+        <v>0.1001048201490788</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9668018156503035</v>
+        <v>0.9668018156503138</v>
       </c>
       <c r="I6" t="n">
-        <v>3.446591395483598</v>
+        <v>3.446591395483634</v>
       </c>
       <c r="J6" t="n">
-        <v>9.457710222944227</v>
+        <v>9.457710222944327</v>
       </c>
       <c r="K6" t="n">
-        <v>16.16473317293244</v>
+        <v>16.16473317293261</v>
       </c>
       <c r="L6" t="n">
-        <v>21.73547860298287</v>
+        <v>21.7354786029831</v>
       </c>
       <c r="M6" t="n">
-        <v>25.36427833338693</v>
+        <v>25.3642783333872</v>
       </c>
       <c r="N6" t="n">
-        <v>26.03559530710597</v>
+        <v>26.03559530710625</v>
       </c>
       <c r="O6" t="n">
-        <v>23.81748323959219</v>
+        <v>23.81748323959244</v>
       </c>
       <c r="P6" t="n">
-        <v>19.11563008618661</v>
+        <v>19.11563008618681</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.77829248078403</v>
+        <v>12.77829248078416</v>
       </c>
       <c r="R6" t="n">
-        <v>6.215279973817303</v>
+        <v>6.215279973817368</v>
       </c>
       <c r="S6" t="n">
-        <v>1.859403128646245</v>
+        <v>1.859403128646265</v>
       </c>
       <c r="T6" t="n">
-        <v>0.403492674197379</v>
+        <v>0.4034926741973832</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00658584343086038</v>
+        <v>0.00658584343086045</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08392451847413332</v>
+        <v>0.08392451847413421</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7461652642518405</v>
+        <v>0.7461652642518484</v>
       </c>
       <c r="I7" t="n">
-        <v>2.523839155567574</v>
+        <v>2.5238391555676</v>
       </c>
       <c r="J7" t="n">
-        <v>5.933463456121226</v>
+        <v>5.933463456121288</v>
       </c>
       <c r="K7" t="n">
-        <v>9.750503146358398</v>
+        <v>9.750503146358499</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47728704659979</v>
+        <v>12.47728704659992</v>
       </c>
       <c r="M7" t="n">
-        <v>13.15554974590437</v>
+        <v>13.15554974590451</v>
       </c>
       <c r="N7" t="n">
-        <v>12.84274017704625</v>
+        <v>12.84274017704638</v>
       </c>
       <c r="O7" t="n">
-        <v>11.86234921123478</v>
+        <v>11.8623492112349</v>
       </c>
       <c r="P7" t="n">
-        <v>10.15028903436245</v>
+        <v>10.15028903436255</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.027533996956747</v>
+        <v>7.02753399695682</v>
       </c>
       <c r="R7" t="n">
-        <v>3.773551530664212</v>
+        <v>3.773551530664252</v>
       </c>
       <c r="S7" t="n">
-        <v>1.462575471953759</v>
+        <v>1.462575471953775</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3585865789349332</v>
+        <v>0.358586578934937</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004577701007680005</v>
+        <v>0.004577701007680053</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952910638772774</v>
+        <v>4.952910638772771</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72399607933169</v>
+        <v>50.72399607933166</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9470874012876</v>
+        <v>190.9470874012874</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3720993275412</v>
+        <v>420.3720993275409</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0288066667929</v>
+        <v>630.0288066667924</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6064456281354</v>
+        <v>781.6064456281348</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6877702004106</v>
+        <v>869.68777020041</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7602275528238</v>
+        <v>883.7602275528232</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5097223885271</v>
+        <v>834.5097223885264</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2347409938241</v>
+        <v>712.2347409938235</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8586287427738</v>
+        <v>534.8586287427735</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1232729128106</v>
+        <v>311.1232729128104</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8644511810347</v>
+        <v>112.8644511810346</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68136632122783</v>
+        <v>21.68136632122782</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962328511018219</v>
+        <v>0.3962328511018216</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650040819603756</v>
+        <v>2.650040819603754</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59381528406786</v>
+        <v>25.59381528406784</v>
       </c>
       <c r="I12" t="n">
-        <v>91.2404404995153</v>
+        <v>91.24044049951523</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>250.3707425223003</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>427.9234774357519</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3959244494911</v>
+        <v>575.3959244494906</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4599041601271</v>
+        <v>671.4599041601265</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2314498319436</v>
+        <v>689.2314498319431</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5121243028287</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0415666838085</v>
+        <v>500.4872193678353</v>
       </c>
       <c r="Q12" t="n">
-        <v>258.4203131678763</v>
+        <v>338.2753860252091</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22334592553464</v>
+        <v>49.22334592553461</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68152418077128</v>
+        <v>10.68152418077127</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743447907634051</v>
+        <v>0.1743447907634049</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221705202515084</v>
+        <v>2.221705202515083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.7529789823614</v>
+        <v>19.75297898236138</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81273463563546</v>
+        <v>66.81273463563541</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0745578178164</v>
+        <v>157.0745578178163</v>
       </c>
       <c r="K13" t="n">
-        <v>258.121749892207</v>
+        <v>258.1217498922068</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3069716539245</v>
+        <v>330.3069716539242</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2623891542509</v>
+        <v>348.2623891542506</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9814879448767</v>
+        <v>339.9814879448764</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0279317154959</v>
+        <v>314.0279317154956</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7051455841879</v>
+        <v>268.7051455841877</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.037514730604</v>
+        <v>186.0375147306039</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89594483308731</v>
+        <v>99.89594483308723</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71826248383105</v>
+        <v>38.71826248383102</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492740410746267</v>
+        <v>9.49274041074626</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211839201371866</v>
+        <v>0.1211839201371865</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>348.185763266026</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
@@ -32087,13 +32087,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980491</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377427</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122284</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874066</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830432</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364266</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293311</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.145364522961</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086955</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687526</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148608</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540906</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,19 +32318,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745726</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504303</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.721473092764</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426206</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059965</v>
+        <v>344.3187317059974</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,40 +32385,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548568</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284928</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900887</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.088578864062</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265023</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416876</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465964</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282425</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561743</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,7 +32543,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,31 +32555,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>302.8877650506832</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>489.7119024980491</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,10 +34214,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,10 +34226,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.50490917948467</v>
       </c>
       <c r="L2" t="n">
-        <v>14.50490917948467</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.50490917948466</v>
       </c>
       <c r="N3" t="n">
         <v>15.11564219756823</v>
       </c>
       <c r="O3" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.50490917948466</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>15.11564219756823</v>
       </c>
       <c r="N4" t="n">
-        <v>14.50490917948467</v>
+        <v>14.50490917948466</v>
       </c>
       <c r="O4" t="n">
         <v>15.11564219756823</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.930191854724439</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>15.11564219756823</v>
@@ -34945,16 +34945,16 @@
         <v>15.11564219756823</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3612270644110236</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14.50490917948466</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.21349026034921</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.71111889668637</v>
+        <v>8.71111889668647</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="M6" t="n">
-        <v>5.793790282798301</v>
+        <v>15.11564219756823</v>
       </c>
       <c r="N6" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.7937902827982</v>
       </c>
       <c r="P6" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.11564219756823</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,10 +35103,10 @@
         <v>15.11564219756823</v>
       </c>
       <c r="N7" t="n">
+        <v>14.50490917948466</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.11564219756823</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.50490917948466</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062405</v>
+        <v>28.45844197068265</v>
       </c>
       <c r="L10" t="n">
         <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061158</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>177.8598224851397</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469473</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3261948008549</v>
+        <v>239.3261948008546</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9389556218123</v>
+        <v>409.9389556218119</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8400306581482</v>
+        <v>545.8400306581475</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3415369731379</v>
+        <v>639.3415369731373</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3471639562329</v>
+        <v>654.3471639562322</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4115109668403</v>
+        <v>604.4115109668396</v>
       </c>
       <c r="P11" t="n">
-        <v>481.0017452385545</v>
+        <v>481.001745238554</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5529388683243</v>
+        <v>312.552938868324</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53773509867847</v>
+        <v>95.53773509867824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>123.5331158556336</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>290.0820384613929</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8415446696169</v>
+        <v>436.8415446696164</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3258702381088</v>
+        <v>529.3258702381081</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8897377486103</v>
+        <v>557.8897377486098</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9158798583843</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0671592694783</v>
+        <v>366.512811953505</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.4385390818548</v>
+        <v>198.2936119391875</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71537770114367</v>
+        <v>63.71537770114355</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8522580663241</v>
+        <v>235.852258066324</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8969969142406</v>
+        <v>357.8969969142404</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8462661160914</v>
+        <v>387.8462661160912</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1136603241054</v>
+        <v>384.113660324105</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6130596295355</v>
+        <v>338.6130596295353</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9837048490814</v>
+        <v>265.9837048490812</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87547147890963</v>
+        <v>99.87547147890949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>210.344324291667</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
@@ -35735,13 +35735,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607203</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380627</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020584</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870087</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404113</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946984</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094307</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981762</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916662</v>
+        <v>210.3443242916671</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066055</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>164.3333852708091</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,10 +37874,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
